--- a/Healthcare/United Healthcare.xlsx
+++ b/Healthcare/United Healthcare.xlsx
@@ -5,35 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379B657-F460-AC4F-A0B1-90EABE6B94D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC9018-440A-9140-8BA4-A96338B578CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -975,18 +956,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,12 +990,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1044,6 +1007,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2542,11 +2523,11 @@
     <v>Powered by Refinitiv</v>
     <v>558.1</v>
     <v>449.70089999999999</v>
-    <v>0.68079999999999996</v>
-    <v>-18.28</v>
-    <v>-3.6234999999999996E-2</v>
-    <v>-1.9</v>
-    <v>-3.908E-3</v>
+    <v>0.68159999999999998</v>
+    <v>-1.31</v>
+    <v>-2.673E-3</v>
+    <v>0.24</v>
+    <v>4.9100000000000001E-4</v>
     <v>USD</v>
     <v>UnitedHealth Group Incorporated is a diversified health care company that operates Optum and UnitedHealthcare platforms. Its segments include Optum Health, Optum Insight, Optum Rx and UnitedHealthcare. Optum Health segment is focused on care delivery, care management, wellness and consumer engagement, and health financial services. Optum Insight segment serves the needs of hospital systems, physicians, health plans, governments and life sciences companies. Optum Rx segment offers pharmacy care services and programs, including retail network contracting, home delivery, specialty and community health pharmacy services, purchasing and clinical capabilities, and develops programs in areas such as step therapy, formulary management, drug adherence and disease/drug therapy management. UnitedHealthcare includes the combined results of operations of UnitedHealthcare Employer &amp; Individual, UnitedHealthcare Medicare &amp; Retirement, UnitedHealthcare Community &amp; State and UnitedHealthcare Global.</v>
     <v>400000</v>
@@ -2554,25 +2535,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>9900 Bren Rd E, HOPKINS, MN, 55343-9664 US</v>
-    <v>501.97</v>
+    <v>490.12</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45035.999862603909</v>
+    <v>45057.991985346875</v>
     <v>0</v>
-    <v>483.625</v>
-    <v>453550016920</v>
+    <v>485.66</v>
+    <v>455051200320</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
-    <v>500.65</v>
-    <v>22.2364</v>
-    <v>504.48</v>
-    <v>486.2</v>
-    <v>484.3</v>
-    <v>932846600</v>
+    <v>488</v>
+    <v>22.413399999999999</v>
+    <v>490.07</v>
+    <v>488.76</v>
+    <v>489</v>
+    <v>931032000</v>
     <v>UNH</v>
     <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
-    <v>5809078</v>
-    <v>3466874</v>
+    <v>2384419</v>
+    <v>3025489</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -3160,10 +3141,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS135" sqref="AS135"/>
+      <selection pane="bottomRight" activeCell="AQ94" sqref="AQ94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5382,15 +5363,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>1.3991461581554903</v>
+        <v>1.4037771247709478</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>22.542247361829027</v>
+        <v>22.616858862823062</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>19.379166677491028</v>
+        <v>19.44330884976927</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13515,10 +13496,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="33" t="s">
+      <c r="AT83" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="34"/>
+      <c r="AU83" s="60"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13638,10 +13619,10 @@
       <c r="AM84" s="1">
         <v>6017000000</v>
       </c>
-      <c r="AT84" s="35" t="s">
+      <c r="AT84" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="36"/>
+      <c r="AU84" s="62"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14139,10 +14120,10 @@
       <c r="AM88" s="1">
         <v>-2802000000</v>
       </c>
-      <c r="AT88" s="37" t="s">
+      <c r="AT88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AU88" s="38">
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>3.6304947677142804E-2</v>
       </c>
@@ -14555,10 +14536,10 @@
       <c r="AM91" s="1">
         <v>-6837000000</v>
       </c>
-      <c r="AT91" s="37" t="s">
+      <c r="AT91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AU91" s="38">
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.21652810993432792</v>
       </c>
@@ -14681,10 +14662,10 @@
       <c r="AM92" s="1">
         <v>11988000000</v>
       </c>
-      <c r="AT92" s="39" t="s">
+      <c r="AT92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AU92" s="40">
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>2.8443905975346403E-2</v>
       </c>
@@ -14807,10 +14788,10 @@
       <c r="AM93" s="1">
         <v>-9367000000</v>
       </c>
-      <c r="AT93" s="35" t="s">
+      <c r="AT93" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="36"/>
+      <c r="AU93" s="62"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14933,7 +14914,7 @@
       <c r="AT94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AU94" s="41">
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -15058,9 +15039,9 @@
       <c r="AT95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="42" cm="1">
+      <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.68079999999999996</v>
+        <v>0.68159999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15184,7 +15165,7 @@
       <c r="AT96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AU96" s="41">
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15306,12 +15287,12 @@
       <c r="AM97" s="1">
         <v>-7000000000</v>
       </c>
-      <c r="AT97" s="39" t="s">
+      <c r="AT97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AU97" s="40">
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.0258440000000005E-2</v>
+        <v>7.0292880000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15432,10 +15413,10 @@
       <c r="AM98" s="1">
         <v>-5991000000</v>
       </c>
-      <c r="AT98" s="35" t="s">
+      <c r="AT98" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="36"/>
+      <c r="AU98" s="62"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15681,12 +15662,12 @@
       <c r="AM100" s="10">
         <v>4226000000</v>
       </c>
-      <c r="AT100" s="37" t="s">
+      <c r="AT100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AU100" s="38">
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.11272699867297213</v>
+        <v>0.1123969178945088</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15810,9 +15791,9 @@
       <c r="AT101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AU101" s="43" cm="1">
+      <c r="AU101" s="39" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>453550016920</v>
+        <v>455051200320</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15933,12 +15914,12 @@
       <c r="AM102" s="10">
         <v>1990000000</v>
       </c>
-      <c r="AT102" s="37" t="s">
+      <c r="AT102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AU102" s="38">
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.88727300132702791</v>
+        <v>0.88760308210549121</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16059,12 +16040,12 @@
       <c r="AM103" s="1">
         <v>21375000000</v>
       </c>
-      <c r="AT103" s="39" t="s">
+      <c r="AT103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AU103" s="44">
+      <c r="AU103" s="40">
         <f>AU99+AU101</f>
-        <v>511173016920</v>
+        <v>512674200320</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16185,10 +16166,10 @@
       <c r="AM104" s="11">
         <v>23365000000</v>
       </c>
-      <c r="AT104" s="35" t="s">
+      <c r="AT104" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="36"/>
+      <c r="AU104" s="62"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16354,7 +16335,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.5544813078491929E-2</v>
+        <v>6.558918430258158E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16475,33 +16456,33 @@
       <c r="AM106" s="1">
         <v>23404000000</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="41">
         <f>AM106*(1+$AU$106)</f>
         <v>25509144252.459938</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="41">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>27803642133.516064</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="41">
         <f t="shared" si="9"/>
         <v>30304525633.551285</v>
       </c>
-      <c r="AQ106" s="45">
+      <c r="AQ106" s="41">
         <f t="shared" si="9"/>
         <v>33030358737.336765</v>
       </c>
-      <c r="AR106" s="45">
+      <c r="AR106" s="41">
         <f t="shared" si="9"/>
         <v>36001375223.945656</v>
       </c>
-      <c r="AS106" s="46" t="s">
+      <c r="AS106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AT106" s="47" t="s">
+      <c r="AT106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="44">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>8.9948053856603177E-2</v>
       </c>
@@ -16546,151 +16527,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="46"/>
-      <c r="AQ107" s="46"/>
-      <c r="AR107" s="49">
+      <c r="AN107" s="42"/>
+      <c r="AO107" s="42"/>
+      <c r="AP107" s="42"/>
+      <c r="AQ107" s="42"/>
+      <c r="AR107" s="45">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>1219893644823.8184</v>
-      </c>
-      <c r="AS107" s="50" t="s">
+        <v>1218124124795.2817</v>
+      </c>
+      <c r="AS107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AT107" s="51" t="s">
+      <c r="AT107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AU107" s="52">
+      <c r="AU107" s="48">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="49">
+      <c r="AN108" s="45">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>25509144252.459938</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="45">
         <f t="shared" si="10"/>
         <v>27803642133.516064</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="45">
         <f t="shared" si="10"/>
         <v>30304525633.551285</v>
       </c>
-      <c r="AQ108" s="49">
+      <c r="AQ108" s="45">
         <f>AQ107+AQ106</f>
         <v>33030358737.336765</v>
       </c>
-      <c r="AR108" s="49">
+      <c r="AR108" s="45">
         <f>AR107+AR106</f>
-        <v>1255895020047.7639</v>
-      </c>
-      <c r="AS108" s="50" t="s">
+        <v>1254125500019.2273</v>
+      </c>
+      <c r="AS108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AT108" s="53" t="s">
+      <c r="AT108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AU108" s="54">
+      <c r="AU108" s="50">
         <f>AU105</f>
-        <v>6.5544813078491929E-2</v>
+        <v>6.558918430258158E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="55" t="s">
+      <c r="AN109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="56"/>
+      <c r="AO109" s="64"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
+      <c r="AN110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AO110" s="43">
+      <c r="AO110" s="39">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1013412858921.3618</v>
+        <v>1011924109667.4216</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
+      <c r="AN111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AO111" s="43">
+      <c r="AO111" s="39">
         <f>AM40</f>
         <v>55822000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
+      <c r="AN112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AO112" s="43">
+      <c r="AO112" s="39">
         <f>AU99</f>
         <v>57623000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
+      <c r="AN113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AO113" s="43">
+      <c r="AO113" s="39">
         <f>AO110+AO111-AO112</f>
-        <v>1011611858921.3618</v>
+        <v>1010123109667.4216</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
+      <c r="AN114" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="AO114" s="58">
+      <c r="AO114" s="52">
         <f>AM34*(1+(AS16*5))</f>
         <v>915819472.61140954</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="59" t="s">
+      <c r="AN115" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="AO115" s="60">
+      <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>1104.5974552569901</v>
+        <v>1102.9718627701925</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="57" t="s">
+      <c r="AN116" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AO116" s="61" cm="1">
+      <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>486.2</v>
+        <v>488.76</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="62" t="s">
+      <c r="AN117" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AO117" s="63">
+      <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>1.271899332079371</v>
+        <v>1.2566737514735093</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="62" t="s">
+      <c r="AN118" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AO118" s="64" t="str">
+      <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/UNH" display="ROIC.AI | UNH" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Healthcare/United Healthcare.xlsx
+++ b/Healthcare/United Healthcare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC9018-440A-9140-8BA4-A96338B578CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D943F2B1-5DDE-0844-AC19-8F8A5EFB7668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,6 +1008,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,12 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2523,11 +2523,11 @@
     <v>Powered by Refinitiv</v>
     <v>558.1</v>
     <v>449.70089999999999</v>
-    <v>0.68159999999999998</v>
-    <v>-1.31</v>
-    <v>-2.673E-3</v>
-    <v>0.24</v>
-    <v>4.9100000000000001E-4</v>
+    <v>0.68</v>
+    <v>-1.26</v>
+    <v>-2.5580000000000004E-3</v>
+    <v>-21.32</v>
+    <v>-4.3394000000000002E-2</v>
     <v>USD</v>
     <v>UnitedHealth Group Incorporated is a diversified health care company that operates Optum and UnitedHealthcare platforms. Its segments include Optum Health, Optum Insight, Optum Rx and UnitedHealthcare. Optum Health segment is focused on care delivery, care management, wellness and consumer engagement, and health financial services. Optum Insight segment serves the needs of hospital systems, physicians, health plans, governments and life sciences companies. Optum Rx segment offers pharmacy care services and programs, including retail network contracting, home delivery, specialty and community health pharmacy services, purchasing and clinical capabilities, and develops programs in areas such as step therapy, formulary management, drug adherence and disease/drug therapy management. UnitedHealthcare includes the combined results of operations of UnitedHealthcare Employer &amp; Individual, UnitedHealthcare Medicare &amp; Retirement, UnitedHealthcare Community &amp; State and UnitedHealthcare Global.</v>
     <v>400000</v>
@@ -2535,25 +2535,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>9900 Bren Rd E, HOPKINS, MN, 55343-9664 US</v>
-    <v>490.12</v>
+    <v>494.66</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45057.991985346875</v>
+    <v>45090.959425532033</v>
     <v>0</v>
-    <v>485.66</v>
-    <v>455051200320</v>
+    <v>488.66</v>
+    <v>457443952560</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
-    <v>488</v>
-    <v>22.413399999999999</v>
-    <v>490.07</v>
-    <v>488.76</v>
-    <v>489</v>
+    <v>490.87</v>
+    <v>22.528600000000001</v>
+    <v>492.59</v>
+    <v>491.33</v>
+    <v>469.99</v>
     <v>931032000</v>
     <v>UNH</v>
     <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
-    <v>2384419</v>
-    <v>3025489</v>
+    <v>2990506</v>
+    <v>2746874</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2718,9 +2718,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3144,7 +3144,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ94" sqref="AQ94"/>
+      <selection pane="bottomRight" activeCell="AQ90" sqref="AQ90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5363,15 +5363,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>1.4037771247709478</v>
+        <v>1.4111584718751735</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>22.616858862823062</v>
+        <v>22.735782930417496</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>19.44330884976927</v>
+        <v>19.545545742608102</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13496,10 +13496,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="59" t="s">
+      <c r="AT83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="60"/>
+      <c r="AU83" s="62"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13619,10 +13619,10 @@
       <c r="AM84" s="1">
         <v>6017000000</v>
       </c>
-      <c r="AT84" s="61" t="s">
+      <c r="AT84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="62"/>
+      <c r="AU84" s="64"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14788,10 +14788,10 @@
       <c r="AM93" s="1">
         <v>-9367000000</v>
       </c>
-      <c r="AT93" s="61" t="s">
+      <c r="AT93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="62"/>
+      <c r="AU93" s="64"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.68159999999999998</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.0292880000000002E-2</v>
+        <v>7.0224000000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15413,10 +15413,10 @@
       <c r="AM98" s="1">
         <v>-5991000000</v>
       </c>
-      <c r="AT98" s="61" t="s">
+      <c r="AT98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="62"/>
+      <c r="AU98" s="64"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.1123969178945088</v>
+        <v>0.11187477611133965</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15793,7 +15793,7 @@
       </c>
       <c r="AU101" s="39" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>455051200320</v>
+        <v>457443952560</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15919,7 +15919,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.88760308210549121</v>
+        <v>0.88812522388866033</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="AU103" s="40">
         <f>AU99+AU101</f>
-        <v>512674200320</v>
+        <v>515066952560</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16166,10 +16166,10 @@
       <c r="AM104" s="11">
         <v>23365000000</v>
       </c>
-      <c r="AT104" s="61" t="s">
+      <c r="AT104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="62"/>
+      <c r="AU104" s="64"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.558918430258158E-2</v>
+        <v>6.5549861335081158E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16533,7 +16533,7 @@
       <c r="AQ107" s="42"/>
       <c r="AR107" s="45">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>1218124124795.2817</v>
+        <v>1219692061711.4404</v>
       </c>
       <c r="AS107" s="46" t="s">
         <v>148</v>
@@ -16564,7 +16564,7 @@
       </c>
       <c r="AR108" s="45">
         <f>AR107+AR106</f>
-        <v>1254125500019.2273</v>
+        <v>1255693436935.386</v>
       </c>
       <c r="AS108" s="46" t="s">
         <v>144</v>
@@ -16574,14 +16574,14 @@
       </c>
       <c r="AU108" s="50">
         <f>AU105</f>
-        <v>6.558918430258158E-2</v>
+        <v>6.5549861335081158E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="63" t="s">
+      <c r="AN109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="64"/>
+      <c r="AO109" s="60"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="51" t="s">
@@ -16589,7 +16589,7 @@
       </c>
       <c r="AO110" s="39">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1011924109667.4216</v>
+        <v>1013243260960.4922</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="AO113" s="39">
         <f>AO110+AO111-AO112</f>
-        <v>1010123109667.4216</v>
+        <v>1011442260960.4922</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>1102.9718627701925</v>
+        <v>1104.4122681475853</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>488.76</v>
+        <v>491.33</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16652,7 +16652,7 @@
       </c>
       <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>1.2566737514735093</v>
+        <v>1.2478014127930015</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Healthcare/United Healthcare.xlsx
+++ b/Healthcare/United Healthcare.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D943F2B1-5DDE-0844-AC19-8F8A5EFB7668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14968A68-5907-E64B-82C3-A92B2651439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,18 +548,47 @@
   <si>
     <t>Shares</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -679,6 +705,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -723,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,22 +862,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -852,47 +876,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,98 +923,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,12 +1066,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>UNH</a:t>
+              <a:t>United Healthcare</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37587725414920142"/>
+          <c:y val="2.3928217858573138E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,10 +1112,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1228918167407275E-2"/>
-          <c:y val="0.11931068722479224"/>
-          <c:w val="0.85728593331774128"/>
-          <c:h val="0.72733578014003419"/>
+          <c:x val="9.0812603648424556E-2"/>
+          <c:y val="0.14231972244104668"/>
+          <c:w val="0.85081260364842448"/>
+          <c:h val="0.64059712103554123"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1172,6 +1169,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
@@ -1297,7 +1417,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9C9-1B44-8F4B-5DAD81C0BB88}"/>
+              <c16:uniqueId val="{00000000-D196-2546-B846-9CC586F69891}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1306,11 +1426,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1348,132 +1468,255 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>5700000</c:v>
+                  <c:v>2100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16000000</c:v>
+                  <c:v>6300000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11300000</c:v>
+                  <c:v>-15800000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-26500000</c:v>
+                  <c:v>-36800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13700000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40900000</c:v>
+                  <c:v>33900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99200000</c:v>
+                  <c:v>74800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144900000</c:v>
+                  <c:v>114200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254100000</c:v>
+                  <c:v>194600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1907115000</c:v>
+                  <c:v>1665214000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550627000</c:v>
+                  <c:v>285964000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>713401000</c:v>
+                  <c:v>355637000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>888000000</c:v>
+                  <c:v>460000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139000000</c:v>
+                  <c:v>-166000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1127000000</c:v>
+                  <c:v>568000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1402000000</c:v>
+                  <c:v>736000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1737000000</c:v>
+                  <c:v>913000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2351000000</c:v>
+                  <c:v>1352000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3234000000</c:v>
+                  <c:v>1825000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4475000000</c:v>
+                  <c:v>2587000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5826000000</c:v>
+                  <c:v>3300000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7654000000</c:v>
+                  <c:v>4159000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8101000000</c:v>
+                  <c:v>4654000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6244000000</c:v>
+                  <c:v>2977000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7350000000</c:v>
+                  <c:v>3822000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8928000000</c:v>
+                  <c:v>4634000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9588000000</c:v>
+                  <c:v>5142000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10563000000</c:v>
+                  <c:v>5526000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10950000000</c:v>
+                  <c:v>5625000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11752000000</c:v>
+                  <c:v>5619000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12659000000</c:v>
+                  <c:v>5813000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14929000000</c:v>
+                  <c:v>7017000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17189000000</c:v>
+                  <c:v>10558000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19376000000</c:v>
+                  <c:v>11986000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22005000000</c:v>
+                  <c:v>13839000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24930000000</c:v>
+                  <c:v>15403000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26626000000</c:v>
+                  <c:v>17285000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31316000000</c:v>
+                  <c:v>20120000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9C9-1B44-8F4B-5DAD81C0BB88}"/>
+              <c16:uniqueId val="{00000001-D196-2546-B846-9CC586F69891}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1482,11 +1725,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,9 +1767,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1649,7 +2015,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9C9-1B44-8F4B-5DAD81C0BB88}"/>
+              <c16:uniqueId val="{00000002-D196-2546-B846-9CC586F69891}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1663,11 +2029,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1800768848"/>
-        <c:axId val="1800771120"/>
+        <c:axId val="1063860800"/>
+        <c:axId val="1064222384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1800768848"/>
+        <c:axId val="1063860800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +2061,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1707,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800771120"/>
+        <c:crossAx val="1064222384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +2081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1800771120"/>
+        <c:axId val="1064222384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1764,7 +2130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800768848"/>
+        <c:crossAx val="1063860800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1782,10 +2148,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35268355811959151"/>
-          <c:y val="0.91396934841011712"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="4.8317039332959041E-2"/>
+          <c:x val="0.34391611496324154"/>
+          <c:y val="0.90296176069814293"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="5.44991853310604E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2365,22 +2731,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0743CCBB-AAAA-3AEB-9F10-C3B53A0188C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325AE16F-FCF4-267E-BD92-AF6B78BBC773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,6 +2765,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,12 +2942,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>558.1</v>
-    <v>449.70089999999999</v>
-    <v>0.68</v>
-    <v>-1.26</v>
-    <v>-2.5580000000000004E-3</v>
-    <v>-21.32</v>
-    <v>-4.3394000000000002E-2</v>
+    <v>445.68</v>
+    <v>0.66400000000000003</v>
+    <v>-3.25</v>
+    <v>-6.398E-3</v>
     <v>USD</v>
     <v>UnitedHealth Group Incorporated is a diversified health care company that operates Optum and UnitedHealthcare platforms. Its segments include Optum Health, Optum Insight, Optum Rx and UnitedHealthcare. Optum Health segment is focused on care delivery, care management, wellness and consumer engagement, and health financial services. Optum Insight segment serves the needs of hospital systems, physicians, health plans, governments and life sciences companies. Optum Rx segment offers pharmacy care services and programs, including retail network contracting, home delivery, specialty and community health pharmacy services, purchasing and clinical capabilities, and develops programs in areas such as step therapy, formulary management, drug adherence and disease/drug therapy management. UnitedHealthcare includes the combined results of operations of UnitedHealthcare Employer &amp; Individual, UnitedHealthcare Medicare &amp; Retirement, UnitedHealthcare Community &amp; State and UnitedHealthcare Global.</v>
     <v>400000</v>
@@ -2535,25 +2953,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>9900 Bren Rd E, HOPKINS, MN, 55343-9664 US</v>
-    <v>494.66</v>
+    <v>510.495</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45090.959425532033</v>
+    <v>45134.823672950784</v>
     <v>0</v>
-    <v>488.66</v>
-    <v>457443952560</v>
+    <v>503.13</v>
+    <v>469938402000</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
-    <v>490.87</v>
-    <v>22.528600000000001</v>
-    <v>492.59</v>
-    <v>491.33</v>
-    <v>469.99</v>
+    <v>508.58</v>
+    <v>22.727599999999999</v>
+    <v>508</v>
+    <v>504.75</v>
     <v>931032000</v>
     <v>UNH</v>
     <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
-    <v>2990506</v>
-    <v>2746874</v>
+    <v>2245876</v>
+    <v>4460413</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2585,8 +3002,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2607,7 +3022,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2624,7 +3038,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2635,16 +3049,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2710,19 +3121,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2767,9 +3172,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2777,9 +3179,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3141,10 +3540,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ90" sqref="AQ90"/>
+      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,19 +3671,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3293,127 +3692,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3540,37 +3939,37 @@
       <c r="AM3" s="1">
         <v>324162000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>360500000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>387800000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>424300000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>475600000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>497900000000</v>
+      <c r="AN3" s="24">
+        <v>367700000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>390900000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>425000000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>460500000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>493400000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3723,23 +4122,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11209827185172849</v>
+        <v>0.1343093885156188</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>7.5728155339805925E-2</v>
+        <v>6.309491433233605E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>9.4120680763279951E-2</v>
+        <v>8.7234586850857054E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12090502003299552</v>
+        <v>8.3529411764705852E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>4.6888141295206021E-2</v>
+        <v>7.1444082519001029E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3754,7 +4153,7 @@
         <v>0.13307099272334844</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.13090446706815076</v>
       </c>
     </row>
@@ -3996,16 +4395,16 @@
         <v>113320000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4139,7 +4538,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>7.2198468666901119E-2</v>
       </c>
     </row>
@@ -4264,7 +4663,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -4419,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4436,34 +4835,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1">
         <v>1030906000</v>
@@ -4481,19 +4880,19 @@
         <v>3343000000</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1">
         <v>4875000000</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1">
         <v>6814000000</v>
@@ -4502,13 +4901,13 @@
         <v>9981000000</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1">
         <v>13103000000</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1">
         <v>14270000000</v>
@@ -4517,37 +4916,37 @@
         <v>15557000000</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4571,118 +4970,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4735,19 +5134,19 @@
         <v>3343000000</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T12" s="1">
         <v>4875000000</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V12" s="1">
         <v>6814000000</v>
@@ -4756,13 +5155,13 @@
         <v>9981000000</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="1">
         <v>13103000000</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA12" s="1">
         <v>14270000000</v>
@@ -4804,21 +5203,21 @@
         <v>0</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5227,16 +5626,16 @@
         <v>84885000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5357,80 +5756,80 @@
       <c r="AM16" s="1">
         <v>295727000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-7.1959005028611328E-3</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="59">
         <f>AU101/AM3</f>
-        <v>1.4111584718751735</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>1.4497023155089122</v>
+      </c>
+      <c r="AU16" s="59">
         <f>AU101/AM28</f>
-        <v>22.735782930417496</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>19.545545742608102</v>
+        <v>23.356779423459244</v>
+      </c>
+      <c r="AV16" s="60">
+        <f>AU101/AM107</f>
+        <v>20.079405315330714</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1">
         <v>95000000</v>
@@ -5445,7 +5844,7 @@
         <v>456000000</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>639000000</v>
@@ -5493,7 +5892,7 @@
         <v>2092000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5612,10 +6011,19 @@
         <v>3400000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5733,14 +6141,41 @@
       <c r="AM19" s="10">
         <v>31316000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="63">
+        <v>36214000000</v>
+      </c>
+      <c r="AO19" s="63">
+        <v>39798000000</v>
+      </c>
+      <c r="AP19" s="63">
+        <v>44150000000</v>
+      </c>
+      <c r="AQ19" s="63">
+        <v>44329000000</v>
+      </c>
+      <c r="AR19" s="63">
+        <v>48255000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-1801000000</v>
       </c>
+      <c r="AT19" s="59">
+        <f>AU101/AN3</f>
+        <v>1.2780484144683166</v>
+      </c>
+      <c r="AU19" s="59">
+        <f>AU101/AN28</f>
+        <v>20.138778744375401</v>
+      </c>
+      <c r="AV19" s="60">
+        <f>AU101/AN106</f>
+        <v>13.948484817903891</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5756,7 +6191,7 @@
         <v>1.3451327433628317</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="3">(F19/E19)-1</f>
         <v>-1.5169811320754718</v>
       </c>
       <c r="G20" s="15">
@@ -5891,8 +6326,28 @@
         <f t="shared" si="3"/>
         <v>0.17614361901900399</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15640567122237825</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.8967250234715864E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10935222875521378</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>4.0543601359004366E-3</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="3"/>
+        <v>8.8565047711430367E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6010,8 +6465,34 @@
       <c r="AM21" s="2">
         <v>9.6600000000000005E-2</v>
       </c>
+      <c r="AN21" s="64">
+        <f>AN19/AN3</f>
+        <v>9.8487897742725053E-2</v>
+      </c>
+      <c r="AO21" s="64">
+        <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
+        <v>0.10181120491174213</v>
+      </c>
+      <c r="AP21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.10388235294117647</v>
+      </c>
+      <c r="AQ21" s="64">
+        <f t="shared" si="4"/>
+        <v>9.6262757871878393E-2</v>
+      </c>
+      <c r="AR21" s="64">
+        <f t="shared" si="4"/>
+        <v>9.7800972841507905E-2</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6129,8 +6610,16 @@
       <c r="AM22" s="10">
         <v>28435000000</v>
       </c>
+      <c r="AU22" s="61">
+        <f>(-1*AM98)/AU101</f>
+        <v>1.2748479320913213E-2</v>
+      </c>
+      <c r="AV22" s="62">
+        <f>AM107/AU101</f>
+        <v>4.9802271745393561E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6249,12 +6738,12 @@
         <v>8.77E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>4200000</v>
@@ -6290,7 +6779,7 @@
         <v>-15560000</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O24" s="1">
         <v>-4000000</v>
@@ -6368,7 +6857,7 @@
         <v>-2092000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6487,7 +6976,7 @@
         <v>26343000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6606,7 +7095,7 @@
         <v>8.1299999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6725,7 +7214,7 @@
         <v>5704000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6843,10 +7332,25 @@
       <c r="AM28" s="11">
         <v>20120000000</v>
       </c>
+      <c r="AN28" s="65">
+        <v>23335000000</v>
+      </c>
+      <c r="AO28" s="65">
+        <v>26081000000</v>
+      </c>
+      <c r="AP28" s="65">
+        <v>29117000000</v>
+      </c>
+      <c r="AQ28" s="65">
+        <v>31794000000</v>
+      </c>
+      <c r="AR28" s="65">
+        <v>33690000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6862,143 +7366,163 @@
         <v>1.3291139240506329</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="5">(F28/E28)-1</f>
         <v>-1.3722826086956521</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4744525547445257</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2064896755162242</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52673796791443861</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7040280210157619</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5571120246659813</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.82827192180704701</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24364255640570143</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29345371825766153</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3608695652173912</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.4216867469879517</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29577464788732399</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24048913043478271</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4808324205914567</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3498520710059172</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41753424657534244</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27560881329725562</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26030303030303026</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11901899495070922</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.36033519553072624</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28384279475982543</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21245421245421237</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10962451445835142</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4679113185530888E-2</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.791530944625408E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0666666666666602E-3</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4525716319629751E-2</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20712196800275251</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50463160894969361</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13525288880469777</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15459702986817958</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11301394609437088</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12218399013179249</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16401504194388195</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.15979125248508952</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11767730876365978</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.1164065795023197</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>9.1939416835525645E-2</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.9633893187393872E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7116,8 +7640,28 @@
       <c r="AM30" s="2">
         <v>6.2100000000000002E-2</v>
       </c>
+      <c r="AN30" s="66">
+        <f>AN28/AN3</f>
+        <v>6.3462061463149311E-2</v>
+      </c>
+      <c r="AO30" s="66">
+        <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
+        <v>6.672038884625224E-2</v>
+      </c>
+      <c r="AP30" s="66">
+        <f t="shared" si="6"/>
+        <v>6.8510588235294115E-2</v>
+      </c>
+      <c r="AQ30" s="66">
+        <f t="shared" si="6"/>
+        <v>6.904234527687296E-2</v>
+      </c>
+      <c r="AR30" s="66">
+        <f t="shared" si="6"/>
+        <v>6.8281313336035668E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7235,8 +7779,23 @@
       <c r="AM31" s="12">
         <v>21.18</v>
       </c>
+      <c r="AN31" s="67">
+        <v>25.06</v>
+      </c>
+      <c r="AO31" s="67">
+        <v>28.01</v>
+      </c>
+      <c r="AP31" s="67">
+        <v>31.27</v>
+      </c>
+      <c r="AQ31" s="67">
+        <v>34.15</v>
+      </c>
+      <c r="AR31" s="67">
+        <v>36.19</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7595,7 +8154,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7603,147 +8162,147 @@
         <v>0.5</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
         <v>0.15750915714285715</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.408555270382454E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3495244562467002</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3197080291970803</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10324483738938053</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.0527120685336609E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15434156224891715</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11687400164139584</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2356647619297835E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7350416753549028E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7738168904194355E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.0680628272251314E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.2112676056338028E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.8826151560178308E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.6621787025703794E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.0880141464948128E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4949586723502428E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2794742593152197E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4135338345864661E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.9243937232524966E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.8170462894930204E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.9959709911361803E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0712468193384227E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.8903625110521665E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.7718491260349589E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1988527724665391E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.6168132942326493E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9269776876267748E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0341261633919339E-3</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7561983471074381E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0304568527918783E-3</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7293997965412006E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.175983436853002E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.2029136316337149E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.2761506276150627E-3</v>
       </c>
     </row>
@@ -7752,118 +8311,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7871,118 +8430,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7990,34 +8549,34 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L38" s="1">
         <v>940110000</v>
@@ -8109,34 +8668,34 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>863815000</v>
@@ -8228,34 +8787,34 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L40" s="1">
         <v>1803925000</v>
@@ -8347,34 +8906,34 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1">
         <v>550313000</v>
@@ -8466,118 +9025,118 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8585,34 +9144,34 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1">
         <v>512883000</v>
@@ -8704,34 +9263,34 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L44" s="10">
         <v>2867121000</v>
@@ -8823,34 +9382,34 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L45" s="1">
         <v>267652000</v>
@@ -8942,55 +9501,55 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1">
         <v>1727042000</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1">
         <v>3363000000</v>
@@ -9061,34 +9620,34 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1">
         <v>24701000</v>
@@ -9180,34 +9739,34 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1">
         <v>1751743000</v>
@@ -9299,55 +9858,55 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1">
         <v>4498000000</v>
@@ -9418,118 +9977,118 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9537,34 +10096,34 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1">
         <v>1274470000</v>
@@ -9656,34 +10215,34 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L52" s="1">
         <v>3293865000</v>
@@ -9775,118 +10334,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9894,34 +10453,34 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" s="11">
         <v>6160986000</v>
@@ -10013,34 +10572,34 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="1">
         <v>79796000</v>
@@ -10049,22 +10608,22 @@
         <v>73077000</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T55" s="1">
         <v>5727000000</v>
@@ -10079,13 +10638,13 @@
         <v>8076000000</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y55" s="1">
         <v>8664000000</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA55" s="1">
         <v>9220000000</v>
@@ -10124,7 +10683,7 @@
         <v>49126000000</v>
       </c>
       <c r="AM55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10132,43 +10691,43 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1">
         <v>459000000</v>
@@ -10251,118 +10810,118 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10370,76 +10929,76 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1">
         <v>1217000000</v>
@@ -10489,34 +11048,34 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1">
         <v>2354200000</v>
@@ -10608,34 +11167,34 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L60" s="10">
         <v>2433996000</v>
@@ -10727,34 +11286,34 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1">
         <v>38970000</v>
@@ -10846,76 +11405,76 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1">
         <v>2325000000</v>
@@ -10924,40 +11483,40 @@
         <v>2361000000</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10965,46 +11524,46 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1">
         <v>118000000</v>
@@ -11084,34 +11643,34 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1">
         <v>500000000</v>
@@ -11126,16 +11685,16 @@
         <v>72000000</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="1">
         <v>1517000000</v>
@@ -11156,13 +11715,13 @@
         <v>2286000000</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA64" s="1">
         <v>-2361000000</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC64" s="1">
         <v>6100000000</v>
@@ -11203,34 +11762,34 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L65" s="1">
         <v>538970000</v>
@@ -11322,118 +11881,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11441,34 +12000,34 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L67" s="10">
         <v>2972966000</v>
@@ -11560,34 +12119,34 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1">
         <v>1752000</v>
@@ -11679,34 +12238,34 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L69" s="1">
         <v>2358640000</v>
@@ -11798,55 +12357,55 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S70" s="1">
         <v>148000000</v>
@@ -11917,34 +12476,34 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L71" s="1">
         <v>827628000</v>
@@ -11989,43 +12548,43 @@
         <v>38000000</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC71" s="1">
         <v>66000000</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF71" s="1">
         <v>29000000</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" s="1">
         <v>1703000000</v>
       </c>
       <c r="AI71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ71" s="1">
         <v>7000000</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM71" s="1">
         <v>3678000000</v>
@@ -12036,34 +12595,34 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L72" s="10">
         <v>3188020000</v>
@@ -12155,34 +12714,34 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L73" s="11">
         <v>6160986000</v>
@@ -12274,118 +12833,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12393,118 +12952,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12512,16 +13071,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>13700000</v>
@@ -12631,16 +13190,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>-7800000</v>
@@ -12750,16 +13309,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>2200000</v>
@@ -12777,13 +13336,13 @@
         <v>-7300000</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1">
         <v>91000000</v>
@@ -12869,73 +13428,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1">
         <v>404000000</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>305000000</v>
@@ -12985,158 +13544,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7166305839736241E-3</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7928247217558914E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8330005278982763E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4849165116627116E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9621373804442335E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8294311339118411E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7188198186358262E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.806584679440225E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5959577229742259E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6356976718909637E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9829715793260581E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8371822066873896E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9009152241862247E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6560892508576549E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8043312896769059E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8535115158470148E-3</v>
       </c>
     </row>
@@ -13145,16 +13704,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>17200000</v>
@@ -13264,16 +13823,16 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1">
         <v>-5200000</v>
@@ -13383,142 +13942,142 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="AT83" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU83" s="42"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1">
         <v>1400000</v>
@@ -13578,13 +14137,13 @@
         <v>-41000000</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC84" s="1">
         <v>300000000</v>
@@ -13619,44 +14178,44 @@
       <c r="AM84" s="1">
         <v>6017000000</v>
       </c>
-      <c r="AT84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="64"/>
+      <c r="AT84" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU84" s="43"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1">
         <v>433125000</v>
@@ -13740,12 +14299,12 @@
         <v>-310000000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU85" s="45">
         <f>AM17</f>
         <v>2092000000</v>
       </c>
@@ -13755,16 +14314,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>15800000</v>
@@ -13809,16 +14368,16 @@
         <v>-506000000</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X86" s="1">
         <v>505000000</v>
@@ -13868,10 +14427,10 @@
       <c r="AM86" s="1">
         <v>673000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU86" s="45">
         <f>AM56</f>
         <v>3110000000</v>
       </c>
@@ -13881,16 +14440,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>41100000</v>
@@ -13994,10 +14553,10 @@
       <c r="AM87" s="10">
         <v>26206000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU87" s="45">
         <f>AM61</f>
         <v>54513000000</v>
       </c>
@@ -14007,16 +14566,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-3700000</v>
@@ -14120,174 +14679,174 @@
       <c r="AM88" s="1">
         <v>-2802000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+      <c r="AT88" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU88" s="47">
         <f>AU85/(AU86+AU87)</f>
         <v>3.6304947677142804E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.9805825242718438E-3</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.4591246903385633E-3</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7825522370440324E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5536135386322652E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1881058837494558E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.112270959929231E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9261567609107442E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6401274991835246E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.585551975580804E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2100259291270527E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0019425416624067E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1599280371176971E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8120576447514282E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6746602717825739E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.232234124483652E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.503122454520771E-3</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.134489368341283E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0301255111714848E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1546976707189353E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.8364732947833124E-3</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.4808005692120544E-3</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.3857567399995723E-3</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0542644850209469E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.7327584638614486E-3</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0735642002891312E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1758356143259185E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.9490399432214174E-3</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.2657000630393671E-3</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0108126473997682E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.1741487341631418E-3</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.6195056374313798E-3</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.0230324793947715E-3</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.6022862310839096E-3</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.6438262350306324E-3</v>
+      </c>
+      <c r="AT89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.9805825242718438E-3</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4591246903385633E-3</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.7825522370440324E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5536135386322652E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1881058837494558E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.112270959929231E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9261567609107442E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6401274991835246E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.585551975580804E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2100259291270527E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0019425416624067E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1599280371176971E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8120576447514282E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6746602717825739E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.232234124483652E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.503122454520771E-3</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.134489368341283E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0301255111714848E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1546976707189353E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.8364732947833124E-3</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.4808005692120544E-3</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.3857567399995723E-3</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0542644850209469E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.7327584638614486E-3</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0735642002891312E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1758356143259185E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.9490399432214174E-3</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.2657000630393671E-3</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0108126473997682E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.1741487341631418E-3</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6195056374313798E-3</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.0230324793947715E-3</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6022862310839096E-3</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6438262350306324E-3</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="45">
         <f>AM27</f>
         <v>5704000000</v>
       </c>
@@ -14297,31 +14856,31 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>-51442000</v>
@@ -14333,7 +14892,7 @@
         <v>-51864000</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-464000000</v>
@@ -14410,10 +14969,10 @@
       <c r="AM90" s="1">
         <v>-21458000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="45">
         <f>AM25</f>
         <v>26343000000</v>
       </c>
@@ -14423,16 +14982,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-42300000</v>
@@ -14536,10 +15095,10 @@
       <c r="AM91" s="1">
         <v>-6837000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+      <c r="AT91" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU91" s="47">
         <f>AU89/AU90</f>
         <v>0.21652810993432792</v>
       </c>
@@ -14549,22 +15108,22 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>136700000</v>
@@ -14662,10 +15221,10 @@
       <c r="AM92" s="1">
         <v>11988000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+      <c r="AT92" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU92" s="47">
         <f>AU88*(1-AU91)</f>
         <v>2.8443905975346403E-2</v>
       </c>
@@ -14675,16 +15234,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-8800000</v>
@@ -14711,7 +15270,7 @@
         <v>-1504000</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1">
         <v>59000000</v>
@@ -14723,31 +15282,31 @@
         <v>12000000</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W93" s="1">
         <v>52000000</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="1">
         <v>185000000</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA93" s="1">
         <v>19000000</v>
@@ -14756,7 +15315,7 @@
         <v>49000000</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD93" s="1">
         <v>191000000</v>
@@ -14788,26 +15347,26 @@
       <c r="AM93" s="1">
         <v>-9367000000</v>
       </c>
-      <c r="AT93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="64"/>
+      <c r="AT93" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU93" s="43"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-54800000</v>
@@ -14911,11 +15470,12 @@
       <c r="AM94" s="10">
         <v>-28476000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU94" s="58">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14923,22 +15483,22 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-5300000</v>
@@ -14959,22 +15519,22 @@
         <v>-620000</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1">
         <v>-150000000</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1">
         <v>-350000000</v>
@@ -15036,12 +15596,12 @@
       <c r="AM95" s="1">
         <v>-3015000000</v>
       </c>
-      <c r="AT95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="38" cm="1">
+      <c r="AT95" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU95" s="49" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.68</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15049,16 +15609,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>30900000</v>
@@ -15162,10 +15722,10 @@
       <c r="AM96" s="1">
         <v>1253000000</v>
       </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+      <c r="AT96" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15174,40 +15734,40 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-22500000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-16000000</v>
@@ -15287,12 +15847,12 @@
       <c r="AM97" s="1">
         <v>-7000000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+      <c r="AT97" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU97" s="47">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.0224000000000009E-2</v>
+        <v>6.8920320000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15300,19 +15860,19 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1">
         <v>-800000</v>
@@ -15413,26 +15973,26 @@
       <c r="AM98" s="1">
         <v>-5991000000</v>
       </c>
-      <c r="AT98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="64"/>
+      <c r="AT98" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU98" s="43"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>100000</v>
@@ -15450,13 +16010,13 @@
         <v>200000</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="1">
         <v>6000000</v>
@@ -15536,10 +16096,10 @@
       <c r="AM99" s="1">
         <v>18979000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU99" s="45">
         <f>AU86+AU87</f>
         <v>57623000000</v>
       </c>
@@ -15549,16 +16109,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>31000000</v>
@@ -15662,12 +16222,12 @@
       <c r="AM100" s="10">
         <v>4226000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU100" s="47">
         <f>AU99/AU103</f>
-        <v>0.11187477611133965</v>
+        <v>0.10922520067152297</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15675,88 +16235,88 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1">
         <v>-86000000</v>
@@ -15788,12 +16348,12 @@
       <c r="AM101" s="1">
         <v>34000000</v>
       </c>
-      <c r="AT101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="39" cm="1">
+      <c r="AT101" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU101" s="35" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>457443952560</v>
+        <v>469938402000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15801,16 +16361,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>31000000</v>
@@ -15914,12 +16474,12 @@
       <c r="AM102" s="10">
         <v>1990000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU102" s="47">
         <f>AU101/AU103</f>
-        <v>0.88812522388866033</v>
+        <v>0.89077479932847703</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15927,16 +16487,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>46500000</v>
@@ -16040,12 +16600,12 @@
       <c r="AM103" s="1">
         <v>21375000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="40">
+      <c r="AT103" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU103" s="50">
         <f>AU99+AU101</f>
-        <v>515066952560</v>
+        <v>527561402000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16053,31 +16613,31 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>1519049000</v>
@@ -16166,500 +16726,628 @@
       <c r="AM104" s="11">
         <v>23365000000</v>
       </c>
-      <c r="AT104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="64"/>
+      <c r="AT104" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU104" s="43"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="10">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>25991921.952700906</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>41925995.520631664</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>97377614.546558857</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>125322954.86466992</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>189664051.17108908</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>406449599.55206317</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>183120094.86391073</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>507965469.95406747</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>512336142.4287287</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>1276094180.6172419</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>1481813992.3319287</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>1872166268.0788064</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>1979916979.8428426</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>2716669551.6835594</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>3034489997.3427477</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>4286018221.1593213</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>4559594465.3228559</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>6973767680.2186537</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>6123470865.1254606</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>4576412557.4156322</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>5705097748.9276085</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>6348222943.4764452</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>6997306077.5158482</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>7311248870.6677294</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>7301349998.101963</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>9007390198.5347137</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>10852643700.413773</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>10663291538.549141</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>12816823976.008806</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>14247536461.299017</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>16754644155.942757</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>21288687696.921383</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="10"/>
+        <v>20950821204.874161</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>24118023194.017387</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$106)</f>
+        <v>26238539528.670918</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
+        <v>28545496911.55463</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>31055287701.40546</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>33785745513.741028</v>
+      </c>
+      <c r="AR105" s="27">
+        <f t="shared" si="11"/>
+        <v>36756271939.725502</v>
+      </c>
+      <c r="AS105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT105" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+      <c r="AU105" s="52">
+        <f>(AU100*AU92)+(AU102*AU97)</f>
+        <v>6.4499275555693569E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47" s="30" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15" t="e">
+        <f>(F107/E107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
         <v>0.46524064171123003</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
         <v>1.0401459854014599</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
         <v>0.49016100178890887</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
         <v>0.34153661464585827</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
         <v>0.10357046979865769</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
         <v>0.31784972916869392</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
         <v>0.22148010275500307</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
         <v>0.24925699432797033</v>
       </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
         <v>0.73588709677419351</v>
       </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
         <v>0.1533101045296168</v>
       </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
         <v>0.28499496475327302</v>
       </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
         <v>0.11206896551724133</v>
       </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
         <v>0.41226215644820297</v>
       </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
         <v>0.32285429141716571</v>
       </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
         <v>0.42776310826103359</v>
       </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
         <v>8.454425363276119E-3</v>
       </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
         <v>0.51899397432538641</v>
       </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
         <v>-0.13659882718178684</v>
       </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
         <v>-0.31142628845385534</v>
       </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
         <v>0.41746446185088493</v>
       </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
         <v>0.10417519443307399</v>
       </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
         <v>9.3790546802595021E-2</v>
       </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
         <v>3.1181155736315969E-2</v>
       </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
         <v>-6.5899753492193902E-2</v>
       </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
         <v>0.14813511611541164</v>
       </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
         <v>0.254060680355501</v>
       </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
         <v>-1.1485826001955024E-2</v>
       </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
         <v>0.43053152039554998</v>
       </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
         <v>0.17946945476540233</v>
       </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
         <v>0.20087912087912096</v>
       </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
         <v>0.22761102977061975</v>
       </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
         <v>-1.1628484818367091E-2</v>
       </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AM106" s="15">
+        <f>(AM107/AL107)-1</f>
         <v>0.17673085625219964</v>
       </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.5549861335081158E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>37400000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>54800000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>111800000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>166600000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>223500000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>246648000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>325045000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>397036000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>496000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>861000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>993000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1276000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>1419000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>2004000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2651000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>3785000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>3817000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>5798000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>5006000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>3447000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>4886000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>5395000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>5901000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>6085000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>5684000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>6526000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>8184000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>8090000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>11573000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>13650000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>16392000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>20123000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>19889000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>23404000000</v>
-      </c>
-      <c r="AN106" s="41">
-        <f>AM106*(1+$AU$106)</f>
-        <v>25509144252.459938</v>
-      </c>
-      <c r="AO106" s="41">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>27803642133.516064</v>
-      </c>
-      <c r="AP106" s="41">
-        <f t="shared" si="9"/>
-        <v>30304525633.551285</v>
-      </c>
-      <c r="AQ106" s="41">
-        <f t="shared" si="9"/>
-        <v>33030358737.336765</v>
-      </c>
-      <c r="AR106" s="41">
-        <f t="shared" si="9"/>
-        <v>36001375223.945656</v>
-      </c>
-      <c r="AS106" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="44">
+      <c r="AN106" s="32">
+        <v>33691000000</v>
+      </c>
+      <c r="AO106" s="32">
+        <v>32692000000</v>
+      </c>
+      <c r="AP106" s="32">
+        <v>37839000000</v>
+      </c>
+      <c r="AQ106" s="32">
+        <v>37013000000</v>
+      </c>
+      <c r="AR106" s="32">
+        <v>39895000000</v>
+      </c>
+      <c r="AS106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT106" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU106" s="57">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>8.9948053856603177E-2</v>
+        <v>8.7922476796503751E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="42"/>
-      <c r="AO107" s="42"/>
-      <c r="AP107" s="42"/>
-      <c r="AQ107" s="42"/>
-      <c r="AR107" s="45">
+      <c r="A107" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>37400000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>54800000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>111800000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>166600000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>223500000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>246648000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>325045000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>397036000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>496000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>861000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>993000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1276000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1419000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2004000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2651000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>3785000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>3817000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>5798000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>5006000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>3447000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>4886000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>5395000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>5901000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>6085000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>5684000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>6526000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>8184000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>8090000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>11573000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>13650000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>16392000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>20123000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>19889000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>23404000000</v>
+      </c>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="69">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>1219692061711.4404</v>
-      </c>
-      <c r="AS107" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="48">
-        <v>3.5000000000000003E-2</v>
+        <v>1035268987208.1876</v>
+      </c>
+      <c r="AS107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU107" s="54">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="45">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>25509144252.459938</v>
-      </c>
-      <c r="AO108" s="45">
-        <f t="shared" si="10"/>
-        <v>27803642133.516064</v>
-      </c>
-      <c r="AP108" s="45">
-        <f t="shared" si="10"/>
-        <v>30304525633.551285</v>
-      </c>
-      <c r="AQ108" s="45">
+      <c r="AN108" s="69">
+        <f t="shared" ref="AN108:AP108" si="12">AN107+AN106</f>
+        <v>33691000000</v>
+      </c>
+      <c r="AO108" s="69">
+        <f t="shared" si="12"/>
+        <v>32692000000</v>
+      </c>
+      <c r="AP108" s="69">
+        <f t="shared" si="12"/>
+        <v>37839000000</v>
+      </c>
+      <c r="AQ108" s="69">
         <f>AQ107+AQ106</f>
-        <v>33030358737.336765</v>
-      </c>
-      <c r="AR108" s="45">
+        <v>37013000000</v>
+      </c>
+      <c r="AR108" s="69">
         <f>AR107+AR106</f>
-        <v>1255693436935.386</v>
-      </c>
-      <c r="AS108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="50">
+        <v>1075163987208.1876</v>
+      </c>
+      <c r="AS108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU108" s="56">
         <f>AU105</f>
-        <v>6.5549861335081158E-2</v>
+        <v>6.4499275555693569E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="60"/>
+      <c r="AN109" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO109" s="33"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="39">
+      <c r="AN110" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO110" s="35">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1013243260960.4922</v>
+        <v>907283369314.25793</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="39">
+      <c r="AN111" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO111" s="35">
         <f>AM40</f>
         <v>55822000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="39">
+      <c r="AN112" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO112" s="35">
         <f>AU99</f>
         <v>57623000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="39">
+      <c r="AN113" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO113" s="35">
         <f>AO110+AO111-AO112</f>
-        <v>1011442260960.4922</v>
+        <v>905482369314.25793</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO114" s="52">
+      <c r="AN114" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO114" s="34">
         <f>AM34*(1+(AS16*5))</f>
         <v>915819472.61140954</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO115" s="54">
+      <c r="AN115" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO115" s="37">
         <f>AO113/AO114</f>
-        <v>1104.4122681475853</v>
+        <v>988.71272821086029</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO116" s="55" cm="1">
+      <c r="AN116" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO116" s="38" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>491.33</v>
+        <v>504.75</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO117" s="57">
+      <c r="AN117" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO117" s="39">
         <f>AO115/AO116-1</f>
-        <v>1.2478014127930015</v>
+        <v>0.95881669779268996</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO118" s="58" t="str">
+      <c r="AN118" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO118" s="40" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -16752,8 +17440,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/731766/000073176623000008/0000731766-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/731766/000073176623000008/0000731766-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:UNH/explorer/revenue_proj" xr:uid="{B230307B-F1F5-394B-BD2D-49884103137A}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{A9924604-4AB2-324F-AD2B-061793E0B292}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Healthcare/United Healthcare.xlsx
+++ b/Healthcare/United Healthcare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14968A68-5907-E64B-82C3-A92B2651439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACCB274-924E-2447-A4A1-0B1330BF2338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -941,70 +941,57 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1012,10 +999,23 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2784,8 +2784,9 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2796,7 +2797,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.1680000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2816,6 +2817,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2943,9 +2945,11 @@
     <v>Powered by Refinitiv</v>
     <v>558.1</v>
     <v>445.68</v>
-    <v>0.66400000000000003</v>
-    <v>-3.25</v>
-    <v>-6.398E-3</v>
+    <v>0.65710000000000002</v>
+    <v>3.02</v>
+    <v>5.9450000000000006E-3</v>
+    <v>1.07</v>
+    <v>2.0939999999999999E-3</v>
     <v>USD</v>
     <v>UnitedHealth Group Incorporated is a diversified health care company that operates Optum and UnitedHealthcare platforms. Its segments include Optum Health, Optum Insight, Optum Rx and UnitedHealthcare. Optum Health segment is focused on care delivery, care management, wellness and consumer engagement, and health financial services. Optum Insight segment serves the needs of hospital systems, physicians, health plans, governments and life sciences companies. Optum Rx segment offers pharmacy care services and programs, including retail network contracting, home delivery, specialty and community health pharmacy services, purchasing and clinical capabilities, and develops programs in areas such as step therapy, formulary management, drug adherence and disease/drug therapy management. UnitedHealthcare includes the combined results of operations of UnitedHealthcare Employer &amp; Individual, UnitedHealthcare Medicare &amp; Retirement, UnitedHealthcare Community &amp; State and UnitedHealthcare Global.</v>
     <v>400000</v>
@@ -2953,24 +2957,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>9900 Bren Rd E, HOPKINS, MN, 55343-9664 US</v>
-    <v>510.495</v>
+    <v>513.5</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45134.823672950784</v>
+    <v>45152.848704212498</v>
     <v>0</v>
-    <v>503.13</v>
-    <v>469938402000</v>
+    <v>508.25</v>
+    <v>473369695253</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
     <v>UNITEDHEALTH GROUP INCORPORATED</v>
-    <v>508.58</v>
-    <v>22.727599999999999</v>
-    <v>508</v>
-    <v>504.75</v>
-    <v>931032000</v>
+    <v>509.15</v>
+    <v>22.728100000000001</v>
+    <v>508.01</v>
+    <v>511.03</v>
+    <v>512</v>
+    <v>926305100</v>
     <v>UNH</v>
     <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
-    <v>2245876</v>
-    <v>4460413</v>
+    <v>2102189</v>
+    <v>3836140</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -3002,6 +3007,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3022,6 +3029,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3038,7 +3046,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3049,13 +3057,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3121,13 +3132,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3172,6 +3189,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3179,6 +3199,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3540,10 +3563,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
+      <selection pane="bottomRight" activeCell="AV118" sqref="AV118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3972,151 +3995,151 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="69">
         <f>(C3/B3)-1</f>
         <v>1.1037549407114624</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="69">
         <f>(D3/C3)-1</f>
         <v>1.0450915922968531</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="69">
         <f>(E3/D3)-1</f>
         <v>-3.4451079467157086E-3</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="69">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>-5.0472459091956634E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>0.46966019417475735</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="69">
         <f t="shared" si="0"/>
         <v>0.39900908340214691</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="69">
         <f t="shared" si="0"/>
         <v>0.70204226183449414</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>0.75287834651130536</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="69">
         <f t="shared" si="0"/>
         <v>0.4912681517825348</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="69">
         <f t="shared" si="0"/>
         <v>0.50465787997607769</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>0.77640746283027062</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>0.17076095491369192</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="69">
         <f t="shared" si="0"/>
         <v>0.47151093776496533</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="69">
         <f t="shared" si="0"/>
         <v>0.12716796312301937</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="69">
         <f t="shared" si="0"/>
         <v>7.9746447193538517E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="69">
         <f t="shared" si="0"/>
         <v>0.11040621153299868</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="69">
         <f t="shared" si="0"/>
         <v>6.6768994627782075E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="69">
         <f t="shared" si="0"/>
         <v>0.14172661870503589</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="69">
         <f t="shared" si="0"/>
         <v>0.28929496604354821</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="69">
         <f t="shared" si="0"/>
         <v>0.21819169155579687</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="69">
         <f t="shared" si="0"/>
         <v>0.57515713457852269</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="69">
         <f t="shared" si="0"/>
         <v>6.7354360345827757E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="69">
         <f t="shared" si="0"/>
         <v>6.6073630205088163E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="69">
         <f t="shared" si="0"/>
         <v>8.3603805260212605E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="69">
         <f t="shared" si="0"/>
         <v>7.35385250981202E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="69">
         <f t="shared" si="0"/>
         <v>8.1906227952023514E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="69">
         <f t="shared" si="0"/>
         <v>8.6258003319895638E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="69">
         <f t="shared" si="0"/>
         <v>0.10738780039658713</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="69">
         <f t="shared" si="0"/>
         <v>6.5309173347351868E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="69">
         <f t="shared" si="0"/>
         <v>0.20588303327036517</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="69">
         <f t="shared" si="0"/>
         <v>0.17656988305402277</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="69">
         <f t="shared" si="0"/>
         <v>8.7624720126948219E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="69">
         <f t="shared" si="0"/>
         <v>0.12359095814845911</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="69">
         <f t="shared" si="0"/>
         <v>6.8474814449173138E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="69">
         <f t="shared" si="0"/>
         <v>6.3969966995325978E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="69">
         <f t="shared" si="0"/>
         <v>0.11592127961695975</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="69">
         <f t="shared" si="0"/>
         <v>0.13632204940530657</v>
       </c>
@@ -5760,17 +5783,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-7.1959005028611328E-3</v>
       </c>
-      <c r="AT16" s="59">
+      <c r="AT16" s="54">
         <f>AU101/AM3</f>
-        <v>1.4497023155089122</v>
-      </c>
-      <c r="AU16" s="59">
+        <v>1.460287434224246</v>
+      </c>
+      <c r="AU16" s="54">
         <f>AU101/AM28</f>
-        <v>23.356779423459244</v>
-      </c>
-      <c r="AV16" s="60">
+        <v>23.527320837624256</v>
+      </c>
+      <c r="AV16" s="55">
         <f>AU101/AM107</f>
-        <v>20.079405315330714</v>
+        <v>20.226016717356007</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6141,36 +6164,36 @@
       <c r="AM19" s="10">
         <v>31316000000</v>
       </c>
-      <c r="AN19" s="63">
+      <c r="AN19" s="58">
         <v>36214000000</v>
       </c>
-      <c r="AO19" s="63">
+      <c r="AO19" s="58">
         <v>39798000000</v>
       </c>
-      <c r="AP19" s="63">
+      <c r="AP19" s="58">
         <v>44150000000</v>
       </c>
-      <c r="AQ19" s="63">
+      <c r="AQ19" s="58">
         <v>44329000000</v>
       </c>
-      <c r="AR19" s="63">
+      <c r="AR19" s="58">
         <v>48255000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-1801000000</v>
       </c>
-      <c r="AT19" s="59">
+      <c r="AT19" s="54">
         <f>AU101/AN3</f>
-        <v>1.2780484144683166</v>
-      </c>
-      <c r="AU19" s="59">
+        <v>1.287380188341039</v>
+      </c>
+      <c r="AU19" s="54">
         <f>AU101/AN28</f>
-        <v>20.138778744375401</v>
-      </c>
-      <c r="AV19" s="60">
+        <v>20.285823666295265</v>
+      </c>
+      <c r="AV19" s="55">
         <f>AU101/AN106</f>
-        <v>13.948484817903891</v>
+        <v>14.050330808019947</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6465,23 +6488,23 @@
       <c r="AM21" s="2">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="AN21" s="64">
+      <c r="AN21" s="59">
         <f>AN19/AN3</f>
         <v>9.8487897742725053E-2</v>
       </c>
-      <c r="AO21" s="64">
+      <c r="AO21" s="59">
         <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
         <v>0.10181120491174213</v>
       </c>
-      <c r="AP21" s="64">
+      <c r="AP21" s="59">
         <f t="shared" si="4"/>
         <v>0.10388235294117647</v>
       </c>
-      <c r="AQ21" s="64">
+      <c r="AQ21" s="59">
         <f t="shared" si="4"/>
         <v>9.6262757871878393E-2</v>
       </c>
-      <c r="AR21" s="64">
+      <c r="AR21" s="59">
         <f t="shared" si="4"/>
         <v>9.7800972841507905E-2</v>
       </c>
@@ -6610,13 +6633,13 @@
       <c r="AM22" s="10">
         <v>28435000000</v>
       </c>
-      <c r="AU22" s="61">
+      <c r="AU22" s="56">
         <f>(-1*AM98)/AU101</f>
-        <v>1.2748479320913213E-2</v>
-      </c>
-      <c r="AV22" s="62">
+        <v>1.2656070002111171E-2</v>
+      </c>
+      <c r="AV22" s="57">
         <f>AM107/AU101</f>
-        <v>4.9802271745393561E-2</v>
+        <v>4.9441272296679994E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7332,19 +7355,19 @@
       <c r="AM28" s="11">
         <v>20120000000</v>
       </c>
-      <c r="AN28" s="65">
+      <c r="AN28" s="60">
         <v>23335000000</v>
       </c>
-      <c r="AO28" s="65">
+      <c r="AO28" s="60">
         <v>26081000000</v>
       </c>
-      <c r="AP28" s="65">
+      <c r="AP28" s="60">
         <v>29117000000</v>
       </c>
-      <c r="AQ28" s="65">
+      <c r="AQ28" s="60">
         <v>31794000000</v>
       </c>
-      <c r="AR28" s="65">
+      <c r="AR28" s="60">
         <v>33690000000</v>
       </c>
     </row>
@@ -7640,23 +7663,23 @@
       <c r="AM30" s="2">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="AN30" s="66">
+      <c r="AN30" s="61">
         <f>AN28/AN3</f>
         <v>6.3462061463149311E-2</v>
       </c>
-      <c r="AO30" s="66">
+      <c r="AO30" s="61">
         <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
         <v>6.672038884625224E-2</v>
       </c>
-      <c r="AP30" s="66">
+      <c r="AP30" s="61">
         <f t="shared" si="6"/>
         <v>6.8510588235294115E-2</v>
       </c>
-      <c r="AQ30" s="66">
+      <c r="AQ30" s="61">
         <f t="shared" si="6"/>
         <v>6.904234527687296E-2</v>
       </c>
-      <c r="AR30" s="66">
+      <c r="AR30" s="61">
         <f t="shared" si="6"/>
         <v>6.8281313336035668E-2</v>
       </c>
@@ -7779,19 +7802,19 @@
       <c r="AM31" s="12">
         <v>21.18</v>
       </c>
-      <c r="AN31" s="67">
+      <c r="AN31" s="62">
         <v>25.06</v>
       </c>
-      <c r="AO31" s="67">
+      <c r="AO31" s="62">
         <v>28.01</v>
       </c>
-      <c r="AP31" s="67">
+      <c r="AP31" s="62">
         <v>31.27</v>
       </c>
-      <c r="AQ31" s="67">
+      <c r="AQ31" s="62">
         <v>34.15</v>
       </c>
-      <c r="AR31" s="67">
+      <c r="AR31" s="62">
         <v>36.19</v>
       </c>
     </row>
@@ -14055,10 +14078,10 @@
       <c r="AM83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT83" s="41" t="s">
+      <c r="AT83" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="AU83" s="42"/>
+      <c r="AU83" s="67"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -14178,10 +14201,10 @@
       <c r="AM84" s="1">
         <v>6017000000</v>
       </c>
-      <c r="AT84" s="43" t="s">
+      <c r="AT84" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AU84" s="43"/>
+      <c r="AU84" s="68"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14301,10 +14324,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="44" t="s">
+      <c r="AT85" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="AU85" s="45">
+      <c r="AU85" s="41">
         <f>AM17</f>
         <v>2092000000</v>
       </c>
@@ -14427,10 +14450,10 @@
       <c r="AM86" s="1">
         <v>673000000</v>
       </c>
-      <c r="AT86" s="44" t="s">
+      <c r="AT86" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="AU86" s="45">
+      <c r="AU86" s="41">
         <f>AM56</f>
         <v>3110000000</v>
       </c>
@@ -14553,10 +14576,10 @@
       <c r="AM87" s="10">
         <v>26206000000</v>
       </c>
-      <c r="AT87" s="44" t="s">
+      <c r="AT87" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="AU87" s="45">
+      <c r="AU87" s="41">
         <f>AM61</f>
         <v>54513000000</v>
       </c>
@@ -14679,10 +14702,10 @@
       <c r="AM88" s="1">
         <v>-2802000000</v>
       </c>
-      <c r="AT88" s="46" t="s">
+      <c r="AT88" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="AU88" s="47">
+      <c r="AU88" s="43">
         <f>AU85/(AU86+AU87)</f>
         <v>3.6304947677142804E-2</v>
       </c>
@@ -14843,10 +14866,10 @@
         <f t="shared" si="9"/>
         <v>8.6438262350306324E-3</v>
       </c>
-      <c r="AT89" s="44" t="s">
+      <c r="AT89" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="45">
+      <c r="AU89" s="41">
         <f>AM27</f>
         <v>5704000000</v>
       </c>
@@ -14969,10 +14992,10 @@
       <c r="AM90" s="1">
         <v>-21458000000</v>
       </c>
-      <c r="AT90" s="44" t="s">
+      <c r="AT90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="45">
+      <c r="AU90" s="41">
         <f>AM25</f>
         <v>26343000000</v>
       </c>
@@ -15095,10 +15118,10 @@
       <c r="AM91" s="1">
         <v>-6837000000</v>
       </c>
-      <c r="AT91" s="46" t="s">
+      <c r="AT91" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AU91" s="47">
+      <c r="AU91" s="43">
         <f>AU89/AU90</f>
         <v>0.21652810993432792</v>
       </c>
@@ -15221,10 +15244,10 @@
       <c r="AM92" s="1">
         <v>11988000000</v>
       </c>
-      <c r="AT92" s="46" t="s">
+      <c r="AT92" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="AU92" s="47">
+      <c r="AU92" s="43">
         <f>AU88*(1-AU91)</f>
         <v>2.8443905975346403E-2</v>
       </c>
@@ -15347,10 +15370,10 @@
       <c r="AM93" s="1">
         <v>-9367000000</v>
       </c>
-      <c r="AT93" s="43" t="s">
+      <c r="AT93" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="AU93" s="43"/>
+      <c r="AU93" s="68"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15470,12 +15493,12 @@
       <c r="AM94" s="10">
         <v>-28476000000</v>
       </c>
-      <c r="AT94" s="44" t="s">
+      <c r="AT94" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AU94" s="58">
+      <c r="AU94" s="44">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.1680000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15596,12 +15619,12 @@
       <c r="AM95" s="1">
         <v>-3015000000</v>
       </c>
-      <c r="AT95" s="44" t="s">
+      <c r="AT95" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AU95" s="49" cm="1">
+      <c r="AU95" s="45" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.66400000000000003</v>
+        <v>0.65710000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15722,10 +15745,10 @@
       <c r="AM96" s="1">
         <v>1253000000</v>
       </c>
-      <c r="AT96" s="44" t="s">
+      <c r="AT96" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AU96" s="48">
+      <c r="AU96" s="44">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15847,12 +15870,12 @@
       <c r="AM97" s="1">
         <v>-7000000000</v>
       </c>
-      <c r="AT97" s="46" t="s">
+      <c r="AT97" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AU97" s="47">
+      <c r="AU97" s="43">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.8920320000000007E-2</v>
+        <v>6.9488472000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15973,10 +15996,10 @@
       <c r="AM98" s="1">
         <v>-5991000000</v>
       </c>
-      <c r="AT98" s="43" t="s">
+      <c r="AT98" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AU98" s="43"/>
+      <c r="AU98" s="68"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -16096,10 +16119,10 @@
       <c r="AM99" s="1">
         <v>18979000000</v>
       </c>
-      <c r="AT99" s="44" t="s">
+      <c r="AT99" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="AU99" s="45">
+      <c r="AU99" s="41">
         <f>AU86+AU87</f>
         <v>57623000000</v>
       </c>
@@ -16222,12 +16245,12 @@
       <c r="AM100" s="10">
         <v>4226000000</v>
       </c>
-      <c r="AT100" s="46" t="s">
+      <c r="AT100" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="AU100" s="47">
+      <c r="AU100" s="43">
         <f>AU99/AU103</f>
-        <v>0.10922520067152297</v>
+        <v>0.10851938362832768</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16348,12 +16371,12 @@
       <c r="AM101" s="1">
         <v>34000000</v>
       </c>
-      <c r="AT101" s="44" t="s">
+      <c r="AT101" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="AU101" s="35" cm="1">
+      <c r="AU101" s="34" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>469938402000</v>
+        <v>473369695253</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16474,12 +16497,12 @@
       <c r="AM102" s="10">
         <v>1990000000</v>
       </c>
-      <c r="AT102" s="46" t="s">
+      <c r="AT102" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="AU102" s="47">
+      <c r="AU102" s="43">
         <f>AU101/AU103</f>
-        <v>0.89077479932847703</v>
+        <v>0.89148061637167231</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16600,12 +16623,12 @@
       <c r="AM103" s="1">
         <v>21375000000</v>
       </c>
-      <c r="AT103" s="46" t="s">
+      <c r="AT103" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="AU103" s="50">
+      <c r="AU103" s="46">
         <f>AU99+AU101</f>
-        <v>527561402000</v>
+        <v>530992695253</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16726,10 +16749,10 @@
       <c r="AM104" s="11">
         <v>23365000000</v>
       </c>
-      <c r="AT104" s="43" t="s">
+      <c r="AT104" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AU104" s="43"/>
+      <c r="AU104" s="68"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16910,12 +16933,12 @@
       <c r="AS105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AT105" s="51" t="s">
+      <c r="AT105" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="AU105" s="52">
+      <c r="AU105" s="48">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.4499275555693569E-2</v>
+        <v>6.50343409937124E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" s="30" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -16924,151 +16947,151 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.46524064171123003</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="12"/>
         <v>1.0401459854014599</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.49016100178890887</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.34153661464585827</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.10357046979865769</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.31784972916869392</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.22148010275500307</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.24925699432797033</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.73588709677419351</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.1533101045296168</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.28499496475327302</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.11206896551724133</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.41226215644820297</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.32285429141716571</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.42776310826103359</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="12"/>
         <v>8.454425363276119E-3</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.51899397432538641</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.13659882718178684</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.31142628845385534</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.41746446185088493</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.10417519443307399</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="12"/>
         <v>9.3790546802595021E-2</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="12"/>
         <v>3.1181155736315969E-2</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="12"/>
         <v>-6.5899753492193902E-2</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.14813511611541164</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.254060680355501</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.1485826001955024E-2</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.43053152039554998</v>
       </c>
       <c r="AI106" s="15">
-        <f>(AI107/AH107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.17946945476540233</v>
       </c>
       <c r="AJ106" s="15">
-        <f>(AJ107/AI107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.20087912087912096</v>
       </c>
       <c r="AK106" s="15">
-        <f>(AK107/AJ107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.22761102977061975</v>
       </c>
       <c r="AL106" s="15">
-        <f>(AL107/AK107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.1628484818367091E-2</v>
       </c>
       <c r="AM106" s="15">
-        <f>(AM107/AL107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.17673085625219964</v>
       </c>
       <c r="AN106" s="32">
@@ -17089,10 +17112,10 @@
       <c r="AS106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AT106" s="68" t="s">
+      <c r="AT106" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AU106" s="57">
+      <c r="AU106" s="53">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>8.7922476796503751E-2</v>
       </c>
@@ -17219,135 +17242,135 @@
       <c r="AO107" s="28"/>
       <c r="AP107" s="28"/>
       <c r="AQ107" s="28"/>
-      <c r="AR107" s="69">
+      <c r="AR107" s="64">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>1035268987208.1876</v>
+        <v>1021432449866.5374</v>
       </c>
       <c r="AS107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="53" t="s">
+      <c r="AT107" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="AU107" s="54">
+      <c r="AU107" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="69">
-        <f t="shared" ref="AN108:AP108" si="12">AN107+AN106</f>
+      <c r="AN108" s="64">
+        <f t="shared" ref="AN108:AP108" si="13">AN107+AN106</f>
         <v>33691000000</v>
       </c>
-      <c r="AO108" s="69">
-        <f t="shared" si="12"/>
+      <c r="AO108" s="64">
+        <f t="shared" si="13"/>
         <v>32692000000</v>
       </c>
-      <c r="AP108" s="69">
-        <f t="shared" si="12"/>
+      <c r="AP108" s="64">
+        <f t="shared" si="13"/>
         <v>37839000000</v>
       </c>
-      <c r="AQ108" s="69">
+      <c r="AQ108" s="64">
         <f>AQ107+AQ106</f>
         <v>37013000000</v>
       </c>
-      <c r="AR108" s="69">
+      <c r="AR108" s="64">
         <f>AR107+AR106</f>
-        <v>1075163987208.1876</v>
+        <v>1061327449866.5374</v>
       </c>
       <c r="AS108" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AT108" s="55" t="s">
+      <c r="AT108" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="AU108" s="56">
+      <c r="AU108" s="52">
         <f>AU105</f>
-        <v>6.4499275555693569E-2</v>
+        <v>6.50343409937124E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="33" t="s">
+      <c r="AN109" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="33"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="34" t="s">
+      <c r="AN110" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="AO110" s="35">
+      <c r="AO110" s="34">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>907283369314.25793</v>
+        <v>895062056032.36523</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="34" t="s">
+      <c r="AN111" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="AO111" s="35">
+      <c r="AO111" s="34">
         <f>AM40</f>
         <v>55822000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="34" t="s">
+      <c r="AN112" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="35">
+      <c r="AO112" s="34">
         <f>AU99</f>
         <v>57623000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="34" t="s">
+      <c r="AN113" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="AO113" s="35">
+      <c r="AO113" s="34">
         <f>AO110+AO111-AO112</f>
-        <v>905482369314.25793</v>
+        <v>893261056032.36523</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="34" t="s">
+      <c r="AN114" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="AO114" s="34">
+      <c r="AO114" s="33">
         <f>AM34*(1+(AS16*5))</f>
         <v>915819472.61140954</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="36" t="s">
+      <c r="AN115" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="AO115" s="37">
+      <c r="AO115" s="36">
         <f>AO113/AO114</f>
-        <v>988.71272821086029</v>
+        <v>975.36805314401079</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="34" t="s">
+      <c r="AN116" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AO116" s="38" cm="1">
+      <c r="AO116" s="37" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>504.75</v>
+        <v>511.03</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="36" t="s">
+      <c r="AN117" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="AO117" s="39">
+      <c r="AO117" s="38">
         <f>AO115/AO116-1</f>
-        <v>0.95881669779268996</v>
+        <v>0.90863169118057807</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="36" t="s">
+      <c r="AN118" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="AO118" s="40" t="str">
+      <c r="AO118" s="39" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
